--- a/配置文档/实体配置相关/属性配置.xlsx
+++ b/配置文档/实体配置相关/属性配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="19965" windowHeight="7710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_AttributeBase_属性表" sheetId="8" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="数据类型" sheetId="2" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">cfg_AttributeData_实体属性表!$A$1:$L$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">cfg_AttributeData_实体属性表!$A$1:$L$20</definedName>
     <definedName name="ExternalData_1" localSheetId="6">数据类型!#REF!</definedName>
     <definedName name="数据类型_Sheet1" localSheetId="6">数据类型!#REF!</definedName>
     <definedName name="连接" localSheetId="6">数据类型!$A$1:$D$37</definedName>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="302">
   <si>
     <t>该表用于保存属性基础数据
 不想填就写 #BASEVALUE</t>
@@ -172,6 +172,18 @@
   </si>
   <si>
     <t>护盾被清零后重新转载的时间，随时间流逝减少，减少到0时将会重启整个护盾，其中包含所有护盾节</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+  </si>
+  <si>
+    <t>实体的移动速度</t>
+  </si>
+  <si>
+    <t>旋转速度</t>
+  </si>
+  <si>
+    <t>实体的旋转速度</t>
   </si>
   <si>
     <t>----基础属性列表----</t>
@@ -466,6 +478,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">实体id
 单位或者炮塔或者建筑等
 </t>
@@ -1697,7 +1715,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1763,9 +1781,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2157,10 +2172,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2168,7 +2183,7 @@
     <col min="1" max="1" width="43.375" style="18" customWidth="1"/>
     <col min="2" max="2" width="30.75" style="18" customWidth="1"/>
     <col min="3" max="3" width="41.25" style="18" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="18" customWidth="1"/>
+    <col min="4" max="4" width="37.4916666666667" style="18" customWidth="1"/>
     <col min="5" max="5" width="19.275" style="18" customWidth="1"/>
     <col min="6" max="6" width="21.9666666666667" style="18" customWidth="1"/>
     <col min="7" max="7" width="48.375" style="18" customWidth="1"/>
@@ -2202,79 +2217,79 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="26" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A2" s="24" t="s">
+    <row r="2" s="25" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="25">
-        <v>1</v>
-      </c>
-      <c r="C2" s="26">
+      <c r="B2" s="24">
+        <v>1</v>
+      </c>
+      <c r="C2" s="25">
         <v>2</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="35">
         <v>2</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="25">
         <v>2</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="25">
         <v>2</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26">
+      <c r="G2" s="25"/>
+      <c r="H2" s="25">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="26" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A3" s="24" t="s">
+    <row r="3" s="25" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" s="26" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A4" s="24" t="s">
+    <row r="4" s="25" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="23" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2416,17 +2431,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" s="28" customFormat="1" ht="156.75" spans="1:8">
-      <c r="A11" s="28">
+    <row r="11" s="27" customFormat="1" ht="156.75" spans="1:8">
+      <c r="A11" s="27">
         <v>1</v>
       </c>
       <c r="B11" s="21">
         <v>7</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="27" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="21">
@@ -2441,16 +2456,16 @@
       </c>
     </row>
     <row r="12" ht="57" spans="1:8">
-      <c r="A12" s="28">
+      <c r="A12" s="27">
         <v>1</v>
       </c>
       <c r="B12" s="21">
         <v>8</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="21">
@@ -2459,20 +2474,23 @@
       <c r="F12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" s="29" customFormat="1" ht="14.25" spans="2:8">
-      <c r="B13" s="37" t="s">
+      <c r="G12" s="27"/>
+      <c r="H12" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A13" s="27">
+        <v>1</v>
+      </c>
+      <c r="B13" s="21">
+        <v>9</v>
+      </c>
+      <c r="C13" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>39</v>
+      <c r="D13" s="27" t="s">
+        <v>40</v>
       </c>
       <c r="E13" s="21">
         <v>0</v>
@@ -2480,28 +2498,44 @@
       <c r="F13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" spans="5:6">
+      <c r="G13" s="27"/>
+      <c r="H13" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A14" s="27">
+        <v>1</v>
+      </c>
+      <c r="B14" s="21">
+        <v>10</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="E14" s="21">
         <v>0</v>
       </c>
       <c r="F14" s="21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" s="30" customFormat="1" ht="14.25" spans="2:8">
-      <c r="B15" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>40</v>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" s="28" customFormat="1" ht="14.25" spans="2:8">
+      <c r="B15" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>43</v>
       </c>
       <c r="E15" s="21">
         <v>0</v>
@@ -2509,65 +2543,46 @@
       <c r="F15" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" ht="54" spans="1:8">
-      <c r="A16" s="18">
-        <v>1</v>
-      </c>
-      <c r="B16" s="18">
+      <c r="G15" s="36"/>
+      <c r="H15" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="5:6">
+      <c r="E16" s="21">
+        <v>0</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" s="29" customFormat="1" ht="14.25" spans="2:8">
+      <c r="B17" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="21">
+        <v>0</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" ht="54" spans="1:8">
+      <c r="A18" s="18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="18">
         <v>101</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="21">
-        <v>0</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" ht="81" spans="1:8">
-      <c r="A17" s="18">
-        <v>1</v>
-      </c>
-      <c r="B17" s="18">
-        <v>102</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="21">
-        <v>0</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" ht="40.5" spans="1:8">
-      <c r="A18" s="18">
-        <v>1</v>
-      </c>
-      <c r="B18" s="18">
-        <v>103</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>45</v>
@@ -2581,17 +2596,17 @@
       <c r="F18" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" ht="40.5" spans="1:8">
+      <c r="G18" s="27"/>
+      <c r="H18" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" ht="81" spans="1:8">
       <c r="A19" s="18">
         <v>1</v>
       </c>
       <c r="B19" s="18">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>47</v>
@@ -2605,20 +2620,23 @@
       <c r="F19" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" s="30" customFormat="1" ht="14.25" spans="2:8">
-      <c r="B20" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>40</v>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" ht="40.5" spans="1:8">
+      <c r="A20" s="18">
+        <v>1</v>
+      </c>
+      <c r="B20" s="18">
+        <v>103</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>50</v>
       </c>
       <c r="E20" s="21">
         <v>0</v>
@@ -2626,33 +2644,44 @@
       <c r="F20" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" spans="2:8">
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" ht="40.5" spans="1:8">
+      <c r="A21" s="18">
+        <v>1</v>
+      </c>
+      <c r="B21" s="18">
+        <v>104</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>52</v>
+      </c>
       <c r="E21" s="21">
         <v>0</v>
       </c>
       <c r="F21" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-    </row>
-    <row r="22" s="31" customFormat="1" ht="14.25" spans="2:8">
-      <c r="B22" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>49</v>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" s="29" customFormat="1" ht="14.25" spans="2:8">
+      <c r="B22" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>44</v>
       </c>
       <c r="E22" s="21">
         <v>0</v>
@@ -2660,65 +2689,51 @@
       <c r="F22" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" ht="40.5" spans="1:8">
-      <c r="A23" s="18">
-        <v>1</v>
-      </c>
-      <c r="B23" s="18">
+      <c r="G22" s="37"/>
+      <c r="H22" s="37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="2:8">
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="21">
+        <v>0</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+    </row>
+    <row r="24" s="30" customFormat="1" ht="14.25" spans="2:8">
+      <c r="B24" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="21">
+        <v>0</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" ht="40.5" spans="1:8">
+      <c r="A25" s="18">
+        <v>1</v>
+      </c>
+      <c r="B25" s="18">
         <v>201</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="21">
-        <v>0</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" ht="27" spans="1:8">
-      <c r="A24" s="18">
-        <v>1</v>
-      </c>
-      <c r="B24" s="18">
-        <v>202</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="21">
-        <v>0</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" ht="54" spans="1:8">
-      <c r="A25" s="18">
-        <v>1</v>
-      </c>
-      <c r="B25" s="18">
-        <v>203</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>54</v>
@@ -2732,17 +2747,17 @@
       <c r="F25" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" s="15" customFormat="1" ht="54" spans="1:8">
+      <c r="G25" s="27"/>
+      <c r="H25" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" ht="27" spans="1:8">
       <c r="A26" s="18">
         <v>1</v>
       </c>
       <c r="B26" s="18">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>56</v>
@@ -2756,20 +2771,23 @@
       <c r="F26" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" s="31" customFormat="1" ht="14.25" spans="2:8">
-      <c r="B27" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>49</v>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" ht="54" spans="1:8">
+      <c r="A27" s="18">
+        <v>1</v>
+      </c>
+      <c r="B27" s="18">
+        <v>203</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="E27" s="21">
         <v>0</v>
@@ -2777,30 +2795,44 @@
       <c r="F27" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" spans="5:8">
+      <c r="G27" s="27"/>
+      <c r="H27" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" s="15" customFormat="1" ht="54" spans="1:8">
+      <c r="A28" s="18">
+        <v>1</v>
+      </c>
+      <c r="B28" s="18">
+        <v>204</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="E28" s="21">
         <v>0</v>
       </c>
       <c r="F28" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-    </row>
-    <row r="29" s="32" customFormat="1" ht="14.25" spans="2:8">
-      <c r="B29" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>58</v>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" s="30" customFormat="1" ht="14.25" spans="2:8">
+      <c r="B29" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>53</v>
       </c>
       <c r="E29" s="21">
         <v>0</v>
@@ -2808,57 +2840,40 @@
       <c r="F29" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" spans="1:8">
-      <c r="A30" s="18">
-        <v>1</v>
-      </c>
-      <c r="B30" s="18">
-        <v>301</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>60</v>
-      </c>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="5:8">
       <c r="E30" s="21">
         <v>0</v>
       </c>
       <c r="F30" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" spans="1:8">
-      <c r="A31" s="18">
-        <v>1</v>
-      </c>
-      <c r="B31" s="18">
-        <v>302</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="18" t="s">
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+    </row>
+    <row r="31" s="31" customFormat="1" ht="14.25" spans="2:8">
+      <c r="B31" s="40" t="s">
         <v>62</v>
       </c>
+      <c r="C31" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>62</v>
+      </c>
       <c r="E31" s="21">
         <v>0</v>
       </c>
       <c r="F31" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28" t="s">
-        <v>24</v>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:8">
@@ -2866,7 +2881,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="18">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>63</v>
@@ -2880,8 +2895,8 @@
       <c r="F32" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28" t="s">
+      <c r="G32" s="27"/>
+      <c r="H32" s="27" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2890,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="18">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>65</v>
@@ -2904,17 +2919,17 @@
       <c r="F33" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" ht="67.5" spans="1:8">
+      <c r="G33" s="27"/>
+      <c r="H33" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" spans="1:8">
       <c r="A34" s="18">
         <v>1</v>
       </c>
       <c r="B34" s="18">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>67</v>
@@ -2928,8 +2943,8 @@
       <c r="F34" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28" t="s">
+      <c r="G34" s="27"/>
+      <c r="H34" s="27" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2938,13 +2953,13 @@
         <v>1</v>
       </c>
       <c r="B35" s="18">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>69</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E35" s="21">
         <v>0</v>
@@ -2952,23 +2967,23 @@
       <c r="F35" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" spans="1:8">
+      <c r="G35" s="27"/>
+      <c r="H35" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" ht="67.5" spans="1:8">
       <c r="A36" s="18">
         <v>1</v>
       </c>
       <c r="B36" s="18">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E36" s="21">
         <v>0</v>
@@ -2976,8 +2991,8 @@
       <c r="F36" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28" t="s">
+      <c r="G36" s="27"/>
+      <c r="H36" s="27" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2986,13 +3001,13 @@
         <v>1</v>
       </c>
       <c r="B37" s="18">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E37" s="21">
         <v>0</v>
@@ -3000,17 +3015,17 @@
       <c r="F37" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" ht="40.5" spans="1:8">
+      <c r="G37" s="27"/>
+      <c r="H37" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" spans="1:8">
       <c r="A38" s="18">
         <v>1</v>
       </c>
       <c r="B38" s="18">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>74</v>
@@ -3024,17 +3039,17 @@
       <c r="F38" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" ht="27" spans="1:8">
+      <c r="G38" s="27"/>
+      <c r="H38" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" spans="1:8">
       <c r="A39" s="18">
         <v>1</v>
       </c>
       <c r="B39" s="18">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>76</v>
@@ -3048,8 +3063,8 @@
       <c r="F39" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28" t="s">
+      <c r="G39" s="27"/>
+      <c r="H39" s="27" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3058,7 +3073,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="18">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>78</v>
@@ -3072,17 +3087,17 @@
       <c r="F40" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" s="15" customFormat="1" ht="40.5" spans="1:8">
+      <c r="G40" s="27"/>
+      <c r="H40" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" ht="27" spans="1:8">
       <c r="A41" s="18">
         <v>1</v>
       </c>
       <c r="B41" s="18">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>80</v>
@@ -3096,17 +3111,17 @@
       <c r="F41" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" s="15" customFormat="1" ht="27" spans="1:8">
+      <c r="G41" s="27"/>
+      <c r="H41" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" ht="40.5" spans="1:8">
       <c r="A42" s="18">
         <v>1</v>
       </c>
       <c r="B42" s="18">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>82</v>
@@ -3120,17 +3135,17 @@
       <c r="F42" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" s="15" customFormat="1" ht="67.5" spans="1:8">
+      <c r="G42" s="27"/>
+      <c r="H42" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" s="15" customFormat="1" ht="40.5" spans="1:8">
       <c r="A43" s="18">
         <v>1</v>
       </c>
       <c r="B43" s="18">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>84</v>
@@ -3144,8 +3159,8 @@
       <c r="F43" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28" t="s">
+      <c r="G43" s="27"/>
+      <c r="H43" s="27" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3154,9 +3169,9 @@
         <v>1</v>
       </c>
       <c r="B44" s="18">
-        <v>315</v>
-      </c>
-      <c r="C44" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="C44" s="18" t="s">
         <v>86</v>
       </c>
       <c r="D44" s="18" t="s">
@@ -3168,17 +3183,17 @@
       <c r="F44" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" s="15" customFormat="1" ht="27" spans="1:8">
+      <c r="G44" s="27"/>
+      <c r="H44" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" s="15" customFormat="1" ht="67.5" spans="1:8">
       <c r="A45" s="18">
         <v>1</v>
       </c>
       <c r="B45" s="18">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>88</v>
@@ -3192,20 +3207,23 @@
       <c r="F45" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" s="32" customFormat="1" ht="14.25" spans="2:8">
-      <c r="B46" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="41" t="s">
-        <v>58</v>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" s="15" customFormat="1" ht="27" spans="1:8">
+      <c r="A46" s="18">
+        <v>1</v>
+      </c>
+      <c r="B46" s="18">
+        <v>315</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>91</v>
       </c>
       <c r="E46" s="21">
         <v>0</v>
@@ -3213,28 +3231,44 @@
       <c r="F46" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25" spans="5:6">
+      <c r="G46" s="27"/>
+      <c r="H46" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" s="15" customFormat="1" ht="27" spans="1:8">
+      <c r="A47" s="18">
+        <v>1</v>
+      </c>
+      <c r="B47" s="18">
+        <v>316</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>93</v>
+      </c>
       <c r="E47" s="21">
         <v>0</v>
       </c>
       <c r="F47" s="21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" s="33" customFormat="1" ht="14.25" spans="2:8">
-      <c r="B48" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="D48" s="42" t="s">
-        <v>90</v>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" s="31" customFormat="1" ht="14.25" spans="2:8">
+      <c r="B48" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="40" t="s">
+        <v>62</v>
       </c>
       <c r="E48" s="21">
         <v>0</v>
@@ -3242,57 +3276,38 @@
       <c r="F48" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" customFormat="1" ht="27" spans="1:8">
-      <c r="A49">
-        <v>1</v>
-      </c>
-      <c r="B49" s="18">
-        <v>401</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>92</v>
-      </c>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25" spans="5:6">
       <c r="E49" s="21">
         <v>0</v>
       </c>
       <c r="F49" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" customFormat="1" ht="27" spans="1:8">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50" s="18">
-        <v>402</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D50" s="18" t="s">
+    </row>
+    <row r="50" s="32" customFormat="1" ht="14.25" spans="2:8">
+      <c r="B50" s="41" t="s">
         <v>94</v>
       </c>
+      <c r="C50" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" s="41" t="s">
+        <v>94</v>
+      </c>
       <c r="E50" s="21">
         <v>0</v>
       </c>
       <c r="F50" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28" t="s">
-        <v>24</v>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="51" customFormat="1" ht="27" spans="1:8">
@@ -3300,7 +3315,7 @@
         <v>1</v>
       </c>
       <c r="B51" s="18">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>95</v>
@@ -3314,20 +3329,23 @@
       <c r="F51" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" s="33" customFormat="1" ht="14.25" spans="2:8">
-      <c r="B52" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="C52" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="D52" s="42" t="s">
-        <v>90</v>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" ht="27" spans="1:8">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" s="18">
+        <v>402</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="E52" s="21">
         <v>0</v>
@@ -3335,33 +3353,44 @@
       <c r="F52" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" ht="14.25" spans="2:8">
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" ht="27" spans="1:8">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" s="18">
+        <v>403</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>100</v>
+      </c>
       <c r="E53" s="21">
         <v>0</v>
       </c>
       <c r="F53" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-    </row>
-    <row r="54" s="34" customFormat="1" ht="14.25" spans="2:8">
-      <c r="B54" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="C54" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="D54" s="43" t="s">
-        <v>97</v>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" s="32" customFormat="1" ht="14.25" spans="2:8">
+      <c r="B54" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="41" t="s">
+        <v>94</v>
       </c>
       <c r="E54" s="21">
         <v>0</v>
@@ -3369,65 +3398,51 @@
       <c r="F54" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G54" s="43"/>
-      <c r="H54" s="43" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="55" ht="14.25" spans="1:8">
-      <c r="A55" s="18">
-        <v>1</v>
-      </c>
-      <c r="B55" s="18">
+      <c r="G54" s="41"/>
+      <c r="H54" s="41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" ht="14.25" spans="2:8">
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="21">
+        <v>0</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+    </row>
+    <row r="56" s="33" customFormat="1" ht="14.25" spans="2:8">
+      <c r="B56" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E56" s="21">
+        <v>0</v>
+      </c>
+      <c r="F56" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25" spans="1:8">
+      <c r="A57" s="18">
+        <v>1</v>
+      </c>
+      <c r="B57" s="18">
         <v>501</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E55" s="21">
-        <v>0</v>
-      </c>
-      <c r="F55" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" ht="27" spans="1:8">
-      <c r="A56" s="18">
-        <v>1</v>
-      </c>
-      <c r="B56" s="18">
-        <v>502</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E56" s="21">
-        <v>0</v>
-      </c>
-      <c r="F56" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57" ht="27" spans="1:8">
-      <c r="A57" s="18">
-        <v>1</v>
-      </c>
-      <c r="B57" s="18">
-        <v>503</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>102</v>
@@ -3441,8 +3456,8 @@
       <c r="F57" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28" t="s">
+      <c r="G57" s="27"/>
+      <c r="H57" s="27" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3451,7 +3466,7 @@
         <v>1</v>
       </c>
       <c r="B58" s="18">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>104</v>
@@ -3465,8 +3480,8 @@
       <c r="F58" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28" t="s">
+      <c r="G58" s="27"/>
+      <c r="H58" s="27" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3475,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="B59" s="18">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>106</v>
@@ -3489,8 +3504,8 @@
       <c r="F59" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28" t="s">
+      <c r="G59" s="27"/>
+      <c r="H59" s="27" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3499,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="B60" s="18">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>108</v>
@@ -3513,8 +3528,8 @@
       <c r="F60" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28" t="s">
+      <c r="G60" s="27"/>
+      <c r="H60" s="27" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3523,7 +3538,7 @@
         <v>1</v>
       </c>
       <c r="B61" s="18">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>110</v>
@@ -3537,20 +3552,23 @@
       <c r="F61" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" s="34" customFormat="1" ht="14.25" spans="2:8">
-      <c r="B62" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="C62" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="D62" s="43" t="s">
-        <v>97</v>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" ht="27" spans="1:8">
+      <c r="A62" s="18">
+        <v>1</v>
+      </c>
+      <c r="B62" s="18">
+        <v>506</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>113</v>
       </c>
       <c r="E62" s="21">
         <v>0</v>
@@ -3558,28 +3576,44 @@
       <c r="F62" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="63" ht="14.25" spans="5:6">
+      <c r="G62" s="27"/>
+      <c r="H62" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" ht="27" spans="1:8">
+      <c r="A63" s="18">
+        <v>1</v>
+      </c>
+      <c r="B63" s="18">
+        <v>507</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>115</v>
+      </c>
       <c r="E63" s="21">
         <v>0</v>
       </c>
       <c r="F63" s="21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="64" s="35" customFormat="1" ht="14.25" spans="2:8">
-      <c r="B64" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="C64" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="D64" s="44" t="s">
-        <v>112</v>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" s="33" customFormat="1" ht="14.25" spans="2:8">
+      <c r="B64" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D64" s="42" t="s">
+        <v>101</v>
       </c>
       <c r="E64" s="21">
         <v>0</v>
@@ -3587,55 +3621,38 @@
       <c r="F64" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G64" s="44"/>
-      <c r="H64" s="44" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="65" ht="27" spans="1:8">
-      <c r="A65" s="18">
-        <v>1</v>
-      </c>
-      <c r="B65" s="18">
-        <v>601</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>114</v>
-      </c>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25" spans="5:6">
       <c r="E65" s="21">
         <v>0</v>
       </c>
       <c r="F65" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="66" ht="14.25" spans="1:8">
-      <c r="A66" s="18">
-        <v>1</v>
-      </c>
-      <c r="B66" s="18">
-        <v>602</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D66" s="18"/>
+    </row>
+    <row r="66" s="34" customFormat="1" ht="14.25" spans="2:8">
+      <c r="B66" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="D66" s="43" t="s">
+        <v>116</v>
+      </c>
       <c r="E66" s="21">
         <v>0</v>
       </c>
       <c r="F66" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28" t="s">
-        <v>24</v>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="67" ht="27" spans="1:8">
@@ -3643,13 +3660,13 @@
         <v>1</v>
       </c>
       <c r="B67" s="18">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E67" s="21">
         <v>0</v>
@@ -3657,8 +3674,8 @@
       <c r="F67" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28" t="s">
+      <c r="G67" s="27"/>
+      <c r="H67" s="27" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3667,19 +3684,65 @@
         <v>1</v>
       </c>
       <c r="B68" s="18">
+        <v>602</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D68" s="18"/>
+      <c r="E68" s="21">
+        <v>0</v>
+      </c>
+      <c r="F68" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" ht="27" spans="1:8">
+      <c r="A69" s="18">
+        <v>1</v>
+      </c>
+      <c r="B69" s="18">
+        <v>603</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E69" s="21">
+        <v>0</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25" spans="1:8">
+      <c r="A70" s="18">
+        <v>1</v>
+      </c>
+      <c r="B70" s="18">
         <v>604</v>
       </c>
-      <c r="C68" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E68" s="21">
-        <v>0</v>
-      </c>
-      <c r="F68" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28" t="s">
+      <c r="C70" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E70" s="21">
+        <v>0</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3700,7 +3763,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -3714,76 +3777,76 @@
   <sheetData>
     <row r="1" ht="104" customHeight="1" spans="1:6">
       <c r="A1" s="16" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>126</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="25">
-        <v>1</v>
-      </c>
-      <c r="C2" s="26">
+      <c r="B2" s="24">
+        <v>1</v>
+      </c>
+      <c r="C2" s="25">
         <v>2</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="26">
         <v>2</v>
       </c>
       <c r="E2" s="13">
         <v>2</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>127</v>
+      <c r="B3" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>131</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>129</v>
+        <v>132</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>18</v>
@@ -3800,7 +3863,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D5" s="7" t="b">
         <v>1</v>
@@ -3828,7 +3891,7 @@
   <sheetPr/>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -3848,40 +3911,40 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="96" customHeight="1" spans="1:12">
       <c r="A1" s="16" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" ht="14.25" spans="1:12">
@@ -3927,37 +3990,37 @@
         <v>9</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" ht="14.25" spans="1:12">
@@ -3977,25 +4040,25 @@
         <v>19</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" s="7" customFormat="1" ht="14.25" spans="1:12">
@@ -4012,7 +4075,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F5" s="7">
         <v>0</v>
@@ -4033,7 +4096,7 @@
         <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" s="7" customFormat="1" ht="14.25" spans="1:12">
@@ -4050,7 +4113,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F6" s="7">
         <v>0</v>
@@ -4071,7 +4134,7 @@
         <v>24</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" s="7" customFormat="1" ht="14.25" spans="1:12">
@@ -4088,7 +4151,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F7" s="7">
         <v>0</v>
@@ -4109,7 +4172,7 @@
         <v>24</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" s="7" customFormat="1" ht="14.25" spans="1:12">
@@ -4126,7 +4189,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F8" s="7">
         <v>100</v>
@@ -4147,7 +4210,7 @@
         <v>24</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" s="7" customFormat="1" ht="14.25" spans="1:12">
@@ -4164,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F9" s="7">
         <v>0</v>
@@ -4202,7 +4265,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F10" s="7">
         <v>0</v>
@@ -4240,7 +4303,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F11" s="7">
         <v>0</v>
@@ -4278,7 +4341,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F12" s="14">
         <v>100</v>
@@ -4316,7 +4379,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F13" s="7">
         <v>0</v>
@@ -4337,7 +4400,7 @@
         <v>24</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" s="7" customFormat="1" ht="14.25" spans="1:12">
@@ -4354,7 +4417,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7">
         <v>0</v>
@@ -4375,7 +4438,7 @@
         <v>24</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" s="7" customFormat="1" ht="14.25" spans="1:12">
@@ -4392,7 +4455,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F15" s="7">
         <v>0</v>
@@ -4413,7 +4476,7 @@
         <v>24</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" s="20" customFormat="1" ht="14.25" spans="1:12">
@@ -4430,7 +4493,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F16" s="20">
         <v>100</v>
@@ -4451,7 +4514,7 @@
         <v>24</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" s="7" customFormat="1" ht="14.25" spans="1:12">
@@ -4468,7 +4531,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F17" s="7">
         <v>0</v>
@@ -4489,7 +4552,7 @@
         <v>24</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" s="7" customFormat="1" ht="14.25" spans="1:12">
@@ -4506,7 +4569,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F18" s="7">
         <v>0</v>
@@ -4527,7 +4590,7 @@
         <v>24</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" s="7" customFormat="1" ht="14.25" spans="1:12">
@@ -4537,14 +4600,14 @@
       <c r="B19" s="7">
         <v>1</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="14">
         <v>-1</v>
       </c>
       <c r="D19" s="7">
         <v>3</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F19" s="7">
         <v>0</v>
@@ -4565,7 +4628,7 @@
         <v>24</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" s="6" customFormat="1" ht="14.25" spans="1:12">
@@ -4582,7 +4645,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F20" s="6">
         <v>100</v>
@@ -4603,7 +4666,7 @@
         <v>24</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" s="7" customFormat="1" ht="14.25"/>
@@ -4623,7 +4686,7 @@
     <row r="35" s="7" customFormat="1" ht="14.25"/>
     <row r="36" s="7" customFormat="1" ht="14.25"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:L16" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:L20" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <dataValidations count="1">
@@ -4658,22 +4721,22 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="96" customHeight="1" spans="1:6">
       <c r="A1" s="16" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" ht="14.25" spans="1:6">
@@ -4701,19 +4764,19 @@
         <v>9</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" ht="14.25" spans="1:6">
@@ -4768,19 +4831,19 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="114" customHeight="1" spans="1:5">
       <c r="A1" s="16" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" ht="14.25" spans="1:5">
@@ -4805,16 +4868,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" ht="14.25" spans="1:5">
@@ -4842,13 +4905,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4859,13 +4922,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4906,34 +4969,34 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="114" customHeight="1" spans="1:10">
       <c r="A1" s="8" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" ht="14.25" spans="1:10">
@@ -4973,31 +5036,31 @@
         <v>9</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" ht="14.25" spans="1:10">
@@ -5014,22 +5077,22 @@
         <v>18</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" ht="14.25" spans="1:10">
@@ -5040,7 +5103,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D5" s="14">
         <v>0</v>
@@ -5072,7 +5135,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D6" s="14">
         <v>0</v>
@@ -5104,7 +5167,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D7" s="14">
         <v>0</v>
@@ -5136,7 +5199,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D8" s="14">
         <v>0</v>
@@ -5168,7 +5231,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D9" s="14">
         <v>0</v>
@@ -5200,7 +5263,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D10" s="14">
         <v>0</v>
@@ -5232,7 +5295,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>24</v>
@@ -5297,22 +5360,22 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="129.375" customWidth="1"/>
+    <col min="3" max="3" width="79.9166666666667" customWidth="1"/>
     <col min="4" max="4" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5320,13 +5383,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5334,13 +5397,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5351,10 +5414,10 @@
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5362,13 +5425,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5376,13 +5439,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5393,10 +5456,10 @@
         <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5404,13 +5467,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5418,13 +5481,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5435,10 +5498,10 @@
         <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5446,13 +5509,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5460,13 +5523,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5474,10 +5537,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5485,7 +5548,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5493,7 +5556,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5501,7 +5564,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5509,7 +5572,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5517,7 +5580,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5525,7 +5588,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5533,7 +5596,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5541,7 +5604,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5549,7 +5612,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5557,7 +5620,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5565,7 +5628,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5573,7 +5636,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5581,13 +5644,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5595,13 +5658,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5609,13 +5672,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5623,13 +5686,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5637,10 +5700,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5648,13 +5711,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5662,13 +5725,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5679,10 +5742,10 @@
         <v>20</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5690,13 +5753,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5704,13 +5767,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -5718,13 +5781,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -5732,10 +5795,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
